--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed1/result_data_KNN.xlsx
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.402</v>
+        <v>-21.573</v>
       </c>
       <c r="B4" t="n">
-        <v>6.574</v>
+        <v>6.837999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.888</v>
+        <v>-12.309</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.478</v>
+        <v>6.226</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.392</v>
+        <v>-21.23</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.292</v>
+        <v>6.256</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.024</v>
+        <v>-11.854</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.394</v>
+        <v>-21.312</v>
       </c>
       <c r="B16" t="n">
-        <v>5.292</v>
+        <v>5.999000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.452</v>
+        <v>-12.732</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
